--- a/ResultadoEleicoesDistritos/AVEIRO_MEALHADA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_MEALHADA.xlsx
@@ -597,64 +597,64 @@
         <v>5311</v>
       </c>
       <c r="H2" t="n">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I2" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J2" t="n">
-        <v>2143</v>
+        <v>2118</v>
       </c>
       <c r="K2" t="n">
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="M2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>241</v>
+      </c>
+      <c r="T2" t="n">
+        <v>380</v>
+      </c>
+      <c r="U2" t="n">
+        <v>33</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3479</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
+      <c r="X2" t="n">
+        <v>3342</v>
+      </c>
+      <c r="Y2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>41</v>
-      </c>
-      <c r="S2" t="n">
-        <v>239</v>
-      </c>
-      <c r="T2" t="n">
-        <v>407</v>
-      </c>
-      <c r="U2" t="n">
-        <v>24</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3434</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3390</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
